--- a/data/AWARE_country_regions_Corrected_online_20230113-1.xlsx
+++ b/data/AWARE_country_regions_Corrected_online_20230113-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1DA58C-967A-4D4B-8EA7-53FD2EFE42CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C517E3-6473-4A67-A472-C9A7B8F41BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="364">
   <si>
     <t>Agg_CF_irri</t>
   </si>
@@ -1110,6 +1110,12 @@
   </si>
   <si>
     <t>Sal</t>
+  </si>
+  <si>
+    <t>Salton Sea</t>
+  </si>
+  <si>
+    <t>Upper Rhine Graben</t>
   </si>
 </sst>
 </file>
@@ -1702,12 +1708,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.86328125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="111.86328125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" customWidth="1"/>
-    <col min="4" max="4" width="22.73046875" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="111.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
@@ -1752,7 +1758,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42.75">
+    <row r="8" spans="1:4" ht="45">
       <c r="A8" s="15" t="s">
         <v>290</v>
       </c>
@@ -1816,18 +1822,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F285" sqref="F285"/>
+      <selection pane="bottomLeft" activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1328125" style="1"/>
-    <col min="5" max="5" width="9.1328125" customWidth="1"/>
-    <col min="6" max="6" width="14.73046875" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" customWidth="1"/>
-    <col min="8" max="8" width="14.86328125" customWidth="1"/>
-    <col min="9" max="9" width="17.1328125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5997,7 +6003,7 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B284" s="1">
         <v>0.9</v>
@@ -6014,7 +6020,7 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B285" s="1">
         <v>6.2</v>
@@ -6043,7 +6049,7 @@
       <selection activeCell="L22" sqref="L22:L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20" t="s">
@@ -6909,18 +6915,18 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="37" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="37" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.65" thickBot="1">
+    <row r="1" spans="1:37" ht="15.75" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.65" thickBot="1">
+    <row r="2" spans="1:37" ht="15.75" thickBot="1">
       <c r="B2" s="27" t="s">
         <v>229</v>
       </c>
@@ -30928,7 +30934,7 @@
         <v>3.4306674594570494</v>
       </c>
     </row>
-    <row r="216" spans="1:37" ht="14.65" thickBot="1">
+    <row r="216" spans="1:37" ht="15.75" thickBot="1">
       <c r="A216" t="s">
         <v>209</v>
       </c>
@@ -31135,11 +31141,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="3" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">

--- a/data/AWARE_country_regions_Corrected_online_20230113-1.xlsx
+++ b/data/AWARE_country_regions_Corrected_online_20230113-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C517E3-6473-4A67-A472-C9A7B8F41BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA4D42E-1397-4D08-BB62-325D872EF2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -14,17 +14,28 @@
     <sheet name="AWARE monthly" sheetId="2" r:id="rId4"/>
     <sheet name="Spatio-Temporal Variability" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="367">
   <si>
     <t>Agg_CF_irri</t>
   </si>
@@ -1106,16 +1117,25 @@
     <t>]</t>
   </si>
   <si>
-    <t>URG</t>
-  </si>
-  <si>
-    <t>Sal</t>
-  </si>
-  <si>
     <t>Salton Sea</t>
   </si>
   <si>
     <t>Upper Rhine Graben</t>
+  </si>
+  <si>
+    <t>Salar de Atacama</t>
+  </si>
+  <si>
+    <t>Salar de Olaroz</t>
+  </si>
+  <si>
+    <t>Salar de Cauchari-Olaroz</t>
+  </si>
+  <si>
+    <t>Chaerhan salt lake</t>
+  </si>
+  <si>
+    <t>Salar del Hombre Muerto North</t>
   </si>
 </sst>
 </file>
@@ -1818,11 +1838,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L285"/>
+  <dimension ref="A1:L290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A285" sqref="A285"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6003,7 +6023,7 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B284" s="1">
         <v>0.9</v>
@@ -6014,13 +6034,14 @@
       <c r="D284" s="4">
         <v>0.8</v>
       </c>
-      <c r="F284" t="s">
-        <v>360</v>
+      <c r="F284" t="str">
+        <f t="shared" ref="F284:F285" si="0">A284</f>
+        <v>Upper Rhine Graben</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B285" s="1">
         <v>6.2</v>
@@ -6031,8 +6052,99 @@
       <c r="D285" s="4">
         <v>6.2</v>
       </c>
-      <c r="F285" t="s">
-        <v>361</v>
+      <c r="F285" t="str">
+        <f t="shared" si="0"/>
+        <v>Salton Sea</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>362</v>
+      </c>
+      <c r="B286" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="C286" s="1">
+        <v>94.7</v>
+      </c>
+      <c r="D286" s="4">
+        <v>88.1</v>
+      </c>
+      <c r="F286" t="str">
+        <f>A286</f>
+        <v>Salar de Atacama</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="s">
+        <v>363</v>
+      </c>
+      <c r="B287" s="1">
+        <v>5</v>
+      </c>
+      <c r="C287" s="1">
+        <v>5</v>
+      </c>
+      <c r="D287" s="4">
+        <v>5</v>
+      </c>
+      <c r="F287" t="str">
+        <f t="shared" ref="F287:F290" si="1">A287</f>
+        <v>Salar de Olaroz</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="s">
+        <v>364</v>
+      </c>
+      <c r="B288" s="1">
+        <v>5</v>
+      </c>
+      <c r="C288" s="1">
+        <v>5</v>
+      </c>
+      <c r="D288" s="4">
+        <v>5</v>
+      </c>
+      <c r="F288" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar de Cauchari-Olaroz</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
+        <v>366</v>
+      </c>
+      <c r="B289" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C289" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D289" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F289" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar del Hombre Muerto North</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="s">
+        <v>365</v>
+      </c>
+      <c r="B290" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="C290" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="D290" s="4">
+        <v>49.9</v>
+      </c>
+      <c r="F290" t="str">
+        <f t="shared" si="1"/>
+        <v>Chaerhan salt lake</v>
       </c>
     </row>
   </sheetData>
@@ -31137,7 +31249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:D216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A125" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/data/AWARE_country_regions_Corrected_online_20230113-1.xlsx
+++ b/data/AWARE_country_regions_Corrected_online_20230113-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA4D42E-1397-4D08-BB62-325D872EF2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E14381-9460-45FF-95D5-483419190280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -1728,12 +1728,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="111.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.86328125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="111.86328125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
+    <col min="4" max="4" width="22.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
@@ -1778,7 +1778,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45">
+    <row r="8" spans="1:4" ht="42.75">
       <c r="A8" s="15" t="s">
         <v>290</v>
       </c>
@@ -1841,19 +1841,19 @@
   <dimension ref="A1:L290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A290" sqref="A290"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1328125" style="1"/>
+    <col min="5" max="5" width="9.1328125" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6161,7 +6161,7 @@
       <selection activeCell="L22" sqref="L22:L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20" t="s">
@@ -7027,18 +7027,18 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="37" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="37" width="9.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" thickBot="1">
+    <row r="1" spans="1:37" ht="14.65" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" thickBot="1">
+    <row r="2" spans="1:37" ht="14.65" thickBot="1">
       <c r="B2" s="27" t="s">
         <v>229</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>3.4306674594570494</v>
       </c>
     </row>
-    <row r="216" spans="1:37" ht="15.75" thickBot="1">
+    <row r="216" spans="1:37" ht="14.65" thickBot="1">
       <c r="A216" t="s">
         <v>209</v>
       </c>
@@ -31253,11 +31253,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
     <col min="2" max="3" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.265625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">

--- a/data/AWARE_country_regions_Corrected_online_20230113-1.xlsx
+++ b/data/AWARE_country_regions_Corrected_online_20230113-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E14381-9460-45FF-95D5-483419190280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568AE259-E13A-4EC2-BBB0-9E25296850FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19298" yWindow="-1920" windowWidth="19396" windowHeight="10275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="374">
   <si>
     <t>Agg_CF_irri</t>
   </si>
@@ -1136,6 +1136,27 @@
   </si>
   <si>
     <t>Salar del Hombre Muerto North</t>
+  </si>
+  <si>
+    <t>Sal de Vida</t>
+  </si>
+  <si>
+    <t>Tres Quebradas</t>
+  </si>
+  <si>
+    <t>Fenix</t>
+  </si>
+  <si>
+    <t>Silver Peak</t>
+  </si>
+  <si>
+    <t>Salar de Uyuni</t>
+  </si>
+  <si>
+    <t>Salar de Pastos Grandes</t>
+  </si>
+  <si>
+    <t>Salar de Tolillar</t>
   </si>
 </sst>
 </file>
@@ -1219,12 +1240,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -1335,7 +1362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1386,6 +1413,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1728,12 +1756,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.86328125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="111.86328125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" customWidth="1"/>
-    <col min="4" max="4" width="22.73046875" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="111.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
@@ -1742,20 +1770,20 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="47.45" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="16" t="s">
@@ -1778,7 +1806,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42.75">
+    <row r="8" spans="1:4" ht="45">
       <c r="A8" s="15" t="s">
         <v>290</v>
       </c>
@@ -1838,22 +1866,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L290"/>
+  <dimension ref="A1:L297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A285" sqref="A285"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A298" sqref="A298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1328125" style="1"/>
-    <col min="5" max="5" width="9.1328125" customWidth="1"/>
-    <col min="6" max="6" width="14.73046875" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" customWidth="1"/>
-    <col min="8" max="8" width="14.86328125" customWidth="1"/>
-    <col min="9" max="9" width="17.1328125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6089,7 +6117,7 @@
         <v>5</v>
       </c>
       <c r="F287" t="str">
-        <f t="shared" ref="F287:F290" si="1">A287</f>
+        <f t="shared" ref="F287:F297" si="1">A287</f>
         <v>Salar de Olaroz</v>
       </c>
     </row>
@@ -6145,6 +6173,135 @@
       <c r="F290" t="str">
         <f t="shared" si="1"/>
         <v>Chaerhan salt lake</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
+        <v>367</v>
+      </c>
+      <c r="B291" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C291" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D291" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F291" t="str">
+        <f t="shared" si="1"/>
+        <v>Sal de Vida</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="s">
+        <v>368</v>
+      </c>
+      <c r="B292" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="C292" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="D292" s="4">
+        <v>92</v>
+      </c>
+      <c r="F292" t="str">
+        <f t="shared" si="1"/>
+        <v>Tres Quebradas</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="s">
+        <v>369</v>
+      </c>
+      <c r="B293" s="1">
+        <f>B291</f>
+        <v>2.7</v>
+      </c>
+      <c r="C293" s="1">
+        <f t="shared" ref="C293:D293" si="2">C291</f>
+        <v>2.7</v>
+      </c>
+      <c r="D293" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="F293" t="str">
+        <f t="shared" si="1"/>
+        <v>Fenix</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B294" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C294" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D294" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="F294" t="str">
+        <f t="shared" si="1"/>
+        <v>Silver Peak</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
+        <v>371</v>
+      </c>
+      <c r="B295" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="C295" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="D295" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="F295" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar de Uyuni</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>372</v>
+      </c>
+      <c r="B296" s="1">
+        <v>5</v>
+      </c>
+      <c r="C296" s="1">
+        <v>5</v>
+      </c>
+      <c r="D296" s="4">
+        <v>5</v>
+      </c>
+      <c r="F296" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar de Pastos Grandes</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>373</v>
+      </c>
+      <c r="B297" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C297" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D297" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F297" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar de Tolillar</v>
       </c>
     </row>
   </sheetData>
@@ -6161,7 +6318,7 @@
       <selection activeCell="L22" sqref="L22:L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20" t="s">
@@ -6173,10 +6330,10 @@
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="20" t="s">
         <v>298</v>
       </c>
@@ -7027,60 +7184,60 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="37" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="37" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.65" thickBot="1">
+    <row r="1" spans="1:37" ht="15.75" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.65" thickBot="1">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:37" ht="15.75" thickBot="1">
+      <c r="B2" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="27" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="27" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="30"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" t="s">
@@ -31046,7 +31203,7 @@
         <v>3.4306674594570494</v>
       </c>
     </row>
-    <row r="216" spans="1:37" ht="14.65" thickBot="1">
+    <row r="216" spans="1:37" ht="15.75" thickBot="1">
       <c r="A216" t="s">
         <v>209</v>
       </c>
@@ -31253,18 +31410,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="3" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">

--- a/data/AWARE_country_regions_Corrected_online_20230113-1.xlsx
+++ b/data/AWARE_country_regions_Corrected_online_20230113-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568AE259-E13A-4EC2-BBB0-9E25296850FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E5D801-979F-4505-B923-8BDB99E14B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19298" yWindow="-1920" windowWidth="19396" windowHeight="10275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="14400" windowHeight="7282" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="392">
   <si>
     <t>Agg_CF_irri</t>
   </si>
@@ -1132,9 +1132,6 @@
     <t>Salar de Cauchari-Olaroz</t>
   </si>
   <si>
-    <t>Chaerhan salt lake</t>
-  </si>
-  <si>
     <t>Salar del Hombre Muerto North</t>
   </si>
   <si>
@@ -1157,6 +1154,63 @@
   </si>
   <si>
     <t>Salar de Tolillar</t>
+  </si>
+  <si>
+    <t>Salar del Rincon</t>
+  </si>
+  <si>
+    <t>Salar de Arizaro</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Salar de Salinas Grandes</t>
+  </si>
+  <si>
+    <t>Salar de Rio Grande</t>
+  </si>
+  <si>
+    <t>Salar de Centenario</t>
+  </si>
+  <si>
+    <t>Salar de Antofalla</t>
+  </si>
+  <si>
+    <t>Salar de Pocito</t>
+  </si>
+  <si>
+    <t>Pocuelos</t>
+  </si>
+  <si>
+    <t>Maricunga</t>
+  </si>
+  <si>
+    <t>Twelveheads</t>
+  </si>
+  <si>
+    <t>Kachi</t>
+  </si>
+  <si>
+    <t>Chaerhan</t>
+  </si>
+  <si>
+    <t>West Taijinair</t>
+  </si>
+  <si>
+    <t>East Taijinair</t>
+  </si>
+  <si>
+    <t>Qinghai Yiliping</t>
+  </si>
+  <si>
+    <t>Salar de Ollague</t>
+  </si>
+  <si>
+    <t>Jintaier Lake</t>
+  </si>
+  <si>
+    <t>Sal de los Angeles</t>
   </si>
 </sst>
 </file>
@@ -1756,12 +1810,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="111.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.86328125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="111.86328125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
+    <col min="4" max="4" width="22.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
@@ -1806,7 +1860,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45">
+    <row r="8" spans="1:4" ht="42.75">
       <c r="A8" s="15" t="s">
         <v>290</v>
       </c>
@@ -1866,22 +1920,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L297"/>
+  <dimension ref="A1:L315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A298" sqref="A298"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1328125" style="1"/>
+    <col min="5" max="5" width="9.1328125" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6117,7 +6171,7 @@
         <v>5</v>
       </c>
       <c r="F287" t="str">
-        <f t="shared" ref="F287:F297" si="1">A287</f>
+        <f t="shared" ref="F287:F315" si="1">A287</f>
         <v>Salar de Olaroz</v>
       </c>
     </row>
@@ -6141,7 +6195,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B289" s="1">
         <v>2.7</v>
@@ -6159,7 +6213,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="B290" s="1">
         <v>48.5</v>
@@ -6172,12 +6226,12 @@
       </c>
       <c r="F290" t="str">
         <f t="shared" si="1"/>
-        <v>Chaerhan salt lake</v>
+        <v>Chaerhan</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B291" s="1">
         <v>2.7</v>
@@ -6195,7 +6249,7 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B292" s="1">
         <v>91.8</v>
@@ -6213,7 +6267,7 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B293" s="1">
         <f>B291</f>
@@ -6234,7 +6288,7 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B294" s="1">
         <v>8.4</v>
@@ -6252,7 +6306,7 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B295" s="1">
         <v>21.5</v>
@@ -6270,7 +6324,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B296" s="1">
         <v>5</v>
@@ -6288,7 +6342,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B297" s="1">
         <v>2.7</v>
@@ -6302,6 +6356,330 @@
       <c r="F297" t="str">
         <f t="shared" si="1"/>
         <v>Salar de Tolillar</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>373</v>
+      </c>
+      <c r="B298" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="C298" s="1">
+        <v>11</v>
+      </c>
+      <c r="D298" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="F298" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar del Rincon</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>374</v>
+      </c>
+      <c r="B299" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C299" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D299" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F299" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar de Arizaro</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="B300" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C300" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D300" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F300" t="str">
+        <f t="shared" si="1"/>
+        <v>Mariana</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="B301" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C301" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D301" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F301" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar de Rio Grande</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="s">
+        <v>391</v>
+      </c>
+      <c r="B302" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C302" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D302" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F302" t="str">
+        <f t="shared" si="1"/>
+        <v>Sal de los Angeles</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="s">
+        <v>378</v>
+      </c>
+      <c r="B303" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C303" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D303" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="F303" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar de Centenario</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="s">
+        <v>379</v>
+      </c>
+      <c r="B304" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C304" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D304" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="F304" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar de Antofalla</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>380</v>
+      </c>
+      <c r="B305" s="1">
+        <v>5</v>
+      </c>
+      <c r="C305" s="1">
+        <v>5</v>
+      </c>
+      <c r="D305" s="1">
+        <v>5</v>
+      </c>
+      <c r="F305" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar de Pocito</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="B306" s="1">
+        <v>5</v>
+      </c>
+      <c r="C306" s="1">
+        <v>5</v>
+      </c>
+      <c r="D306" s="1">
+        <v>5</v>
+      </c>
+      <c r="F306" t="str">
+        <f t="shared" si="1"/>
+        <v>Pocuelos</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>376</v>
+      </c>
+      <c r="B307" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C307" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="D307" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="F307" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar de Salinas Grandes</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B308" s="1">
+        <v>97.5</v>
+      </c>
+      <c r="C308" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="D308" s="1">
+        <v>96.4</v>
+      </c>
+      <c r="F308" t="str">
+        <f t="shared" si="1"/>
+        <v>Maricunga</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="s">
+        <v>383</v>
+      </c>
+      <c r="B309" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C309" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D309" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F309" t="str">
+        <f t="shared" si="1"/>
+        <v>Twelveheads</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="s">
+        <v>384</v>
+      </c>
+      <c r="B310" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C310" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="D310" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F310" t="str">
+        <f t="shared" si="1"/>
+        <v>Kachi</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="s">
+        <v>386</v>
+      </c>
+      <c r="B311" s="1">
+        <v>22</v>
+      </c>
+      <c r="C311" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="D311" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="F311" t="str">
+        <f t="shared" si="1"/>
+        <v>West Taijinair</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>387</v>
+      </c>
+      <c r="B312" s="1">
+        <v>22</v>
+      </c>
+      <c r="C312" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="D312" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" si="1"/>
+        <v>East Taijinair</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="s">
+        <v>388</v>
+      </c>
+      <c r="B313" s="1">
+        <v>100</v>
+      </c>
+      <c r="C313" s="1">
+        <v>100</v>
+      </c>
+      <c r="D313" s="1">
+        <v>100</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" si="1"/>
+        <v>Qinghai Yiliping</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B314" s="1">
+        <v>97</v>
+      </c>
+      <c r="C314" s="1">
+        <v>96.4</v>
+      </c>
+      <c r="D314" s="1">
+        <v>96.9</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" si="1"/>
+        <v>Salar de Ollague</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>390</v>
+      </c>
+      <c r="B315" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="C315" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D315" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="1"/>
+        <v>Jintaier Lake</v>
       </c>
     </row>
   </sheetData>
@@ -6318,7 +6696,7 @@
       <selection activeCell="L22" sqref="L22:L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20" t="s">
@@ -7184,18 +7562,18 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="37" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="37" width="9.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" thickBot="1">
+    <row r="1" spans="1:37" ht="14.65" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" thickBot="1">
+    <row r="2" spans="1:37" ht="14.65" thickBot="1">
       <c r="B2" s="28" t="s">
         <v>229</v>
       </c>
@@ -31203,7 +31581,7 @@
         <v>3.4306674594570494</v>
       </c>
     </row>
-    <row r="216" spans="1:37" ht="15.75" thickBot="1">
+    <row r="216" spans="1:37" ht="14.65" thickBot="1">
       <c r="A216" t="s">
         <v>209</v>
       </c>
@@ -31410,11 +31788,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
     <col min="2" max="3" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.265625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">

--- a/data/AWARE_country_regions_Corrected_online_20230113-1.xlsx
+++ b/data/AWARE_country_regions_Corrected_online_20230113-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E5D801-979F-4505-B923-8BDB99E14B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72FEFA6-2F48-49C0-BA05-E58D9FE87DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="14400" windowHeight="7282" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -1177,9 +1177,6 @@
     <t>Salar de Antofalla</t>
   </si>
   <si>
-    <t>Salar de Pocito</t>
-  </si>
-  <si>
     <t>Pocuelos</t>
   </si>
   <si>
@@ -1211,6 +1208,9 @@
   </si>
   <si>
     <t>Sal de los Angeles</t>
+  </si>
+  <si>
+    <t>Salar de Pocitos</t>
   </si>
 </sst>
 </file>
@@ -1923,8 +1923,8 @@
   <dimension ref="A1:L315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A303" sqref="A303"/>
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B290" s="1">
         <v>48.5</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B302" s="1">
         <v>2.7</v>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B305" s="1">
         <v>5</v>
@@ -6499,12 +6499,12 @@
       </c>
       <c r="F305" t="str">
         <f t="shared" si="1"/>
-        <v>Salar de Pocito</v>
+        <v>Salar de Pocitos</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B306" s="1">
         <v>5</v>
@@ -6540,7 +6540,7 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B308" s="1">
         <v>97.5</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B309" s="1">
         <v>2.8</v>
@@ -6576,7 +6576,7 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B310" s="1">
         <v>0.6</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B311" s="1">
         <v>22</v>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B312" s="1">
         <v>22</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B313" s="1">
         <v>100</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B314" s="1">
         <v>97</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B315" s="1">
         <v>15.2</v>
